--- a/resources/templates/day_templates/Day.xlsx
+++ b/resources/templates/day_templates/Day.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9264" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="detailed" sheetId="1" r:id="rId1"/>
@@ -1433,12 +1433,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -3869,10 +3869,10 @@
   <sheetPr/>
   <dimension ref="A1:D289"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B214" sqref="B214"/>
+      <selection pane="bottomLeft" activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -5988,8 +5988,8 @@
   <sheetPr/>
   <dimension ref="B3:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
